--- a/supplementalData/Table S8.xlsx
+++ b/supplementalData/Table S8.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/Dropbox/_Manuscripts/16 Species Paper/_ToSubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danny/projects/GitHub/Drosophila14GenomesProject/supplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D754ACC-6C45-F448-AC4D-19597302F427}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="4060" windowWidth="26040" windowHeight="14940"/>
+    <workbookView xWindow="4780" yWindow="4060" windowWidth="26040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S8-AsmPilonAfterRacon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="144">
   <si>
     <t>Dyak.pass.minimap2.racon.x4.pilon.x4.fasta</t>
   </si>
@@ -267,33 +268,6 @@
   </si>
   <si>
     <t>Dmau.pass.minimap2.racon.x1.pilon.x0.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x4.pilon.x4.fasta</t>
-  </si>
-  <si>
-    <t>Dkik</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x4.pilon.x3.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.pilon.x3.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x3.pilon.x2.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x2.pilon.x2.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x2.pilon.x1.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x1.pilon.x1.fasta</t>
-  </si>
-  <si>
-    <t>Dkik.pass.minimap2.racon.x1.pilon.x0.fasta</t>
   </si>
   <si>
     <t>Deug.pass.minimap2.racon.x4.pilon.x4.fasta</t>
@@ -488,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -553,13 +527,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -874,14 +848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,82 +878,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>152</v>
+      <c r="A1" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="L2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1023,10 +997,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1070,10 +1044,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1117,10 +1091,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1164,10 +1138,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1211,10 +1185,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1258,10 +1232,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1305,10 +1279,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -1352,10 +1326,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1399,10 +1373,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1446,10 +1420,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1493,10 +1467,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1540,10 +1514,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -1587,10 +1561,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1634,10 +1608,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -1681,10 +1655,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -1728,10 +1702,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1775,10 +1749,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1822,10 +1796,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1869,10 +1843,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1916,10 +1890,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1963,10 +1937,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -2010,10 +1984,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -2057,10 +2031,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
@@ -2104,10 +2078,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2151,10 +2125,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2198,10 +2172,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -2245,10 +2219,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -2292,10 +2266,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -2339,10 +2313,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
@@ -2386,10 +2360,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -2433,10 +2407,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -2480,10 +2454,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2527,10 +2501,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -2574,10 +2548,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -2621,10 +2595,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2668,10 +2642,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -2715,10 +2689,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -2762,10 +2736,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -2809,10 +2783,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
@@ -2856,10 +2830,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2868,34 +2842,34 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>173380011</v>
+        <v>133964127</v>
       </c>
       <c r="G44" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H44" s="2">
-        <v>741165</v>
+        <v>4727420</v>
       </c>
       <c r="I44" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J44" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L44" s="1">
-        <v>82.9</v>
+        <v>91</v>
       </c>
       <c r="M44" s="1">
-        <v>81.599999999999994</v>
+        <v>90.3</v>
       </c>
       <c r="N44" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="O44" s="1">
-        <v>7.9</v>
+        <v>5.7</v>
       </c>
       <c r="P44" s="1">
-        <v>9.1999999999999993</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" s="1">
         <v>978</v>
@@ -2903,10 +2877,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -2915,34 +2889,34 @@
         <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>173898069</v>
+        <v>134258984</v>
       </c>
       <c r="G45" s="2">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H45" s="2">
-        <v>743222</v>
+        <v>4736016</v>
       </c>
       <c r="I45" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J45" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L45" s="1">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="M45" s="1">
-        <v>89.4</v>
+        <v>96.3</v>
       </c>
       <c r="N45" s="1">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="O45" s="1">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P45" s="1">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q45" s="1">
         <v>978</v>
@@ -2950,10 +2924,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -2962,34 +2936,34 @@
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <v>173637861</v>
+        <v>134036541</v>
       </c>
       <c r="G46" s="2">
-        <v>482</v>
+        <v>270</v>
       </c>
       <c r="H46" s="2">
-        <v>742620</v>
+        <v>4727965</v>
       </c>
       <c r="I46" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J46" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L46" s="1">
-        <v>88.5</v>
+        <v>95.3</v>
       </c>
       <c r="M46" s="1">
-        <v>87</v>
+        <v>93.9</v>
       </c>
       <c r="N46" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O46" s="1">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="P46" s="1">
-        <v>6.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q46" s="1">
         <v>978</v>
@@ -2997,10 +2971,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -3009,34 +2983,34 @@
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>173885262</v>
+        <v>134213196</v>
       </c>
       <c r="G47" s="2">
-        <v>482</v>
+        <v>270</v>
       </c>
       <c r="H47" s="2">
-        <v>743077</v>
+        <v>4735855</v>
       </c>
       <c r="I47" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J47" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L47" s="1">
-        <v>94.1</v>
+        <v>98.7</v>
       </c>
       <c r="M47" s="1">
-        <v>88.7</v>
+        <v>97</v>
       </c>
       <c r="N47" s="1">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="O47" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="P47" s="1">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q47" s="1">
         <v>978</v>
@@ -3044,10 +3018,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -3056,34 +3030,34 @@
         <v>2</v>
       </c>
       <c r="F48" s="2">
-        <v>173612162</v>
+        <v>133978113</v>
       </c>
       <c r="G48" s="2">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="H48" s="2">
-        <v>742448</v>
+        <v>4728011</v>
       </c>
       <c r="I48" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J48" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L48" s="1">
-        <v>88.5</v>
+        <v>94.9</v>
       </c>
       <c r="M48" s="1">
-        <v>86</v>
+        <v>93.9</v>
       </c>
       <c r="N48" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="P48" s="1">
-        <v>6.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q48" s="1">
         <v>978</v>
@@ -3091,10 +3065,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -3103,34 +3077,34 @@
         <v>3</v>
       </c>
       <c r="F49" s="2">
-        <v>173860896</v>
+        <v>134165153</v>
       </c>
       <c r="G49" s="2">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="H49" s="2">
-        <v>742425</v>
+        <v>4735548</v>
       </c>
       <c r="I49" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J49" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L49" s="1">
-        <v>94.3</v>
+        <v>98.6</v>
       </c>
       <c r="M49" s="1">
-        <v>88.7</v>
+        <v>96.9</v>
       </c>
       <c r="N49" s="1">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="O49" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P49" s="1">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q49" s="1">
         <v>978</v>
@@ -3138,10 +3112,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -3150,34 +3124,34 @@
         <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>173579319</v>
+        <v>133941609</v>
       </c>
       <c r="G50" s="2">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="H50" s="2">
-        <v>742245</v>
+        <v>4728192</v>
       </c>
       <c r="I50" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J50" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L50" s="1">
-        <v>88.4</v>
+        <v>95.4</v>
       </c>
       <c r="M50" s="1">
-        <v>85.8</v>
+        <v>94.4</v>
       </c>
       <c r="N50" s="1">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="P50" s="1">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q50" s="1">
         <v>978</v>
@@ -3185,10 +3159,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -3197,34 +3171,34 @@
         <v>4</v>
       </c>
       <c r="F51" s="2">
-        <v>173841527</v>
+        <v>134121293</v>
       </c>
       <c r="G51" s="2">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="H51" s="2">
-        <v>743183</v>
+        <v>4735637</v>
       </c>
       <c r="I51" s="2">
-        <v>342</v>
+        <v>65</v>
       </c>
       <c r="J51" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L51" s="1">
-        <v>93.8</v>
+        <v>98.6</v>
       </c>
       <c r="M51" s="1">
-        <v>88.5</v>
+        <v>96.9</v>
       </c>
       <c r="N51" s="1">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="O51" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="P51" s="1">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q51" s="1">
         <v>978</v>
@@ -3232,10 +3206,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -3244,34 +3218,34 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>133964127</v>
+        <v>167961763</v>
       </c>
       <c r="G52" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H52" s="2">
-        <v>4727420</v>
+        <v>5216854</v>
       </c>
       <c r="I52" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J52" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L52" s="1">
-        <v>91</v>
+        <v>82.5</v>
       </c>
       <c r="M52" s="1">
-        <v>90.3</v>
+        <v>81</v>
       </c>
       <c r="N52" s="1">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="O52" s="1">
-        <v>5.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P52" s="1">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
       <c r="Q52" s="1">
         <v>978</v>
@@ -3279,10 +3253,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3291,34 +3265,34 @@
         <v>1</v>
       </c>
       <c r="F53" s="2">
-        <v>134258984</v>
+        <v>168092324</v>
       </c>
       <c r="G53" s="2">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="H53" s="2">
-        <v>4736016</v>
+        <v>5223969</v>
       </c>
       <c r="I53" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J53" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L53" s="1">
-        <v>98</v>
+        <v>97.2</v>
       </c>
       <c r="M53" s="1">
-        <v>96.3</v>
+        <v>94.8</v>
       </c>
       <c r="N53" s="1">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O53" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P53" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q53" s="1">
         <v>978</v>
@@ -3326,10 +3300,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -3338,34 +3312,34 @@
         <v>1</v>
       </c>
       <c r="F54" s="2">
-        <v>134036541</v>
+        <v>168172077</v>
       </c>
       <c r="G54" s="2">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="H54" s="2">
-        <v>4727965</v>
+        <v>5224548</v>
       </c>
       <c r="I54" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J54" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L54" s="1">
-        <v>95.3</v>
+        <v>91.4</v>
       </c>
       <c r="M54" s="1">
-        <v>93.9</v>
+        <v>90.3</v>
       </c>
       <c r="N54" s="1">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O54" s="1">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="P54" s="1">
-        <v>2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q54" s="1">
         <v>978</v>
@@ -3373,10 +3347,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
@@ -3385,34 +3359,34 @@
         <v>2</v>
       </c>
       <c r="F55" s="2">
-        <v>134213196</v>
+        <v>168083016</v>
       </c>
       <c r="G55" s="2">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="H55" s="2">
-        <v>4735855</v>
+        <v>5221576</v>
       </c>
       <c r="I55" s="2">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J55" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L55" s="1">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="M55" s="1">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="N55" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O55" s="1">
         <v>0.1</v>
       </c>
       <c r="P55" s="1">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Q55" s="1">
         <v>978</v>
@@ -3420,10 +3394,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -3432,34 +3406,34 @@
         <v>2</v>
       </c>
       <c r="F56" s="2">
-        <v>133978113</v>
+        <v>168135422</v>
       </c>
       <c r="G56" s="2">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="H56" s="2">
-        <v>4728011</v>
+        <v>5221717</v>
       </c>
       <c r="I56" s="2">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J56" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L56" s="1">
-        <v>94.9</v>
+        <v>92.3</v>
       </c>
       <c r="M56" s="1">
-        <v>93.9</v>
+        <v>90.9</v>
       </c>
       <c r="N56" s="1">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="O56" s="1">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P56" s="1">
-        <v>2.2999999999999998</v>
+        <v>4.2</v>
       </c>
       <c r="Q56" s="1">
         <v>978</v>
@@ -3467,10 +3441,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
       </c>
       <c r="C57" s="1">
         <v>3</v>
@@ -3479,34 +3453,34 @@
         <v>3</v>
       </c>
       <c r="F57" s="2">
-        <v>134165153</v>
+        <v>168094910</v>
       </c>
       <c r="G57" s="2">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="H57" s="2">
-        <v>4735548</v>
+        <v>5221700</v>
       </c>
       <c r="I57" s="2">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J57" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L57" s="1">
-        <v>98.6</v>
+        <v>97.9</v>
       </c>
       <c r="M57" s="1">
-        <v>96.9</v>
+        <v>95.4</v>
       </c>
       <c r="N57" s="1">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O57" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P57" s="1">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q57" s="1">
         <v>978</v>
@@ -3514,10 +3488,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="1">
         <v>4</v>
@@ -3526,34 +3500,34 @@
         <v>3</v>
       </c>
       <c r="F58" s="2">
-        <v>133941609</v>
+        <v>168138611</v>
       </c>
       <c r="G58" s="2">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="H58" s="2">
-        <v>4728192</v>
+        <v>5221702</v>
       </c>
       <c r="I58" s="2">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J58" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L58" s="1">
-        <v>95.4</v>
+        <v>92.4</v>
       </c>
       <c r="M58" s="1">
-        <v>94.4</v>
+        <v>90.9</v>
       </c>
       <c r="N58" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O58" s="1">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P58" s="1">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q58" s="1">
         <v>978</v>
@@ -3561,10 +3535,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="1">
         <v>4</v>
@@ -3573,34 +3547,34 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>134121293</v>
+        <v>168084195</v>
       </c>
       <c r="G59" s="2">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="H59" s="2">
-        <v>4735637</v>
+        <v>5221530</v>
       </c>
       <c r="I59" s="2">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J59" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L59" s="1">
-        <v>98.6</v>
+        <v>97.8</v>
       </c>
       <c r="M59" s="1">
-        <v>96.9</v>
+        <v>95.2</v>
       </c>
       <c r="N59" s="1">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O59" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P59" s="1">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q59" s="1">
         <v>978</v>
@@ -3608,10 +3582,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -3620,34 +3594,34 @@
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>167961763</v>
+        <v>164506016</v>
       </c>
       <c r="G60" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H60" s="2">
-        <v>5216854</v>
+        <v>3435302</v>
       </c>
       <c r="I60" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="J60" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L60" s="1">
-        <v>82.5</v>
+        <v>80.3</v>
       </c>
       <c r="M60" s="1">
-        <v>81</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="N60" s="1">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="O60" s="1">
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="P60" s="1">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="Q60" s="1">
         <v>978</v>
@@ -3655,10 +3629,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3667,31 +3641,31 @@
         <v>1</v>
       </c>
       <c r="F61" s="2">
-        <v>168092324</v>
+        <v>164101787</v>
       </c>
       <c r="G61" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H61" s="2">
-        <v>5223969</v>
+        <v>3428846</v>
       </c>
       <c r="I61" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J61" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L61" s="1">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="M61" s="1">
-        <v>94.8</v>
+        <v>95.2</v>
       </c>
       <c r="N61" s="1">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="O61" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P61" s="1">
         <v>2</v>
@@ -3702,10 +3676,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
@@ -3714,34 +3688,34 @@
         <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>168172077</v>
+        <v>164375924</v>
       </c>
       <c r="G62" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H62" s="2">
-        <v>5224548</v>
+        <v>3435815</v>
       </c>
       <c r="I62" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="J62" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L62" s="1">
-        <v>91.4</v>
+        <v>88.9</v>
       </c>
       <c r="M62" s="1">
-        <v>90.3</v>
+        <v>87.2</v>
       </c>
       <c r="N62" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="O62" s="1">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="P62" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="Q62" s="1">
         <v>978</v>
@@ -3749,10 +3723,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -3761,34 +3735,34 @@
         <v>2</v>
       </c>
       <c r="F63" s="2">
-        <v>168083016</v>
+        <v>163987919</v>
       </c>
       <c r="G63" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H63" s="2">
-        <v>5221576</v>
+        <v>3428525</v>
       </c>
       <c r="I63" s="2">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="J63" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L63" s="1">
-        <v>98</v>
+        <v>97.4</v>
       </c>
       <c r="M63" s="1">
-        <v>95.5</v>
+        <v>94.4</v>
       </c>
       <c r="N63" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O63" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P63" s="1">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q63" s="1">
         <v>978</v>
@@ -3796,10 +3770,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -3808,34 +3782,34 @@
         <v>2</v>
       </c>
       <c r="F64" s="2">
-        <v>168135422</v>
+        <v>164259565</v>
       </c>
       <c r="G64" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H64" s="2">
-        <v>5221717</v>
+        <v>3435693</v>
       </c>
       <c r="I64" s="2">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="J64" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L64" s="1">
-        <v>92.3</v>
+        <v>87.2</v>
       </c>
       <c r="M64" s="1">
-        <v>90.9</v>
+        <v>85.4</v>
       </c>
       <c r="N64" s="1">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O64" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P64" s="1">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q64" s="1">
         <v>978</v>
@@ -3843,10 +3817,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
@@ -3855,34 +3829,34 @@
         <v>3</v>
       </c>
       <c r="F65" s="2">
-        <v>168094910</v>
+        <v>163916300</v>
       </c>
       <c r="G65" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H65" s="2">
-        <v>5221700</v>
+        <v>3428699</v>
       </c>
       <c r="I65" s="2">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="J65" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L65" s="1">
-        <v>97.9</v>
+        <v>97.6</v>
       </c>
       <c r="M65" s="1">
-        <v>95.4</v>
+        <v>94.5</v>
       </c>
       <c r="N65" s="1">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="O65" s="1">
         <v>0.2</v>
       </c>
       <c r="P65" s="1">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q65" s="1">
         <v>978</v>
@@ -3890,10 +3864,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C66" s="1">
         <v>4</v>
@@ -3902,34 +3876,34 @@
         <v>3</v>
       </c>
       <c r="F66" s="2">
-        <v>168138611</v>
+        <v>164196801</v>
       </c>
       <c r="G66" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H66" s="2">
-        <v>5221702</v>
+        <v>3435746</v>
       </c>
       <c r="I66" s="2">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="J66" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L66" s="1">
-        <v>92.4</v>
+        <v>89.7</v>
       </c>
       <c r="M66" s="1">
-        <v>90.9</v>
+        <v>88.3</v>
       </c>
       <c r="N66" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O66" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P66" s="1">
-        <v>4.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="Q66" s="1">
         <v>978</v>
@@ -3937,10 +3911,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C67" s="1">
         <v>4</v>
@@ -3949,31 +3923,31 @@
         <v>4</v>
       </c>
       <c r="F67" s="2">
-        <v>168084195</v>
+        <v>163852484</v>
       </c>
       <c r="G67" s="2">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="H67" s="2">
-        <v>5221530</v>
+        <v>3428354</v>
       </c>
       <c r="I67" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J67" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L67" s="1">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="M67" s="1">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="N67" s="1">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O67" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P67" s="1">
         <v>1.9</v>
@@ -3984,10 +3958,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -3996,34 +3970,34 @@
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>164506016</v>
+        <v>159382384</v>
       </c>
       <c r="G68" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H68" s="2">
-        <v>3435302</v>
+        <v>2986395</v>
       </c>
       <c r="I68" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J68" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L68" s="1">
-        <v>80.3</v>
+        <v>84.1</v>
       </c>
       <c r="M68" s="1">
-        <v>79.400000000000006</v>
+        <v>82.8</v>
       </c>
       <c r="N68" s="1">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O68" s="1">
-        <v>10.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P68" s="1">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q68" s="1">
         <v>978</v>
@@ -4031,10 +4005,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -4043,34 +4017,34 @@
         <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>164101787</v>
+        <v>159147619</v>
       </c>
       <c r="G69" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H69" s="2">
-        <v>3428846</v>
+        <v>2983252</v>
       </c>
       <c r="I69" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J69" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L69" s="1">
         <v>97.1</v>
       </c>
       <c r="M69" s="1">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="N69" s="1">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="O69" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="P69" s="1">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q69" s="1">
         <v>978</v>
@@ -4078,10 +4052,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
@@ -4090,34 +4064,34 @@
         <v>1</v>
       </c>
       <c r="F70" s="2">
-        <v>164375924</v>
+        <v>159331083</v>
       </c>
       <c r="G70" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H70" s="2">
-        <v>3435815</v>
+        <v>2988324</v>
       </c>
       <c r="I70" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J70" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L70" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="M70" s="1">
         <v>88.9</v>
       </c>
-      <c r="M70" s="1">
-        <v>87.2</v>
-      </c>
       <c r="N70" s="1">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="O70" s="1">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="P70" s="1">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="Q70" s="1">
         <v>978</v>
@@ -4125,10 +4099,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -4137,34 +4111,34 @@
         <v>2</v>
       </c>
       <c r="F71" s="2">
-        <v>163987919</v>
+        <v>159045776</v>
       </c>
       <c r="G71" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H71" s="2">
-        <v>3428525</v>
+        <v>2983366</v>
       </c>
       <c r="I71" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J71" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L71" s="1">
-        <v>97.4</v>
+        <v>97.8</v>
       </c>
       <c r="M71" s="1">
-        <v>94.4</v>
+        <v>95.9</v>
       </c>
       <c r="N71" s="1">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="O71" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P71" s="1">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q71" s="1">
         <v>978</v>
@@ -4172,10 +4146,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
@@ -4184,34 +4158,34 @@
         <v>2</v>
       </c>
       <c r="F72" s="2">
-        <v>164259565</v>
+        <v>159249675</v>
       </c>
       <c r="G72" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H72" s="2">
-        <v>3435693</v>
+        <v>2988495</v>
       </c>
       <c r="I72" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J72" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L72" s="1">
-        <v>87.2</v>
+        <v>90.3</v>
       </c>
       <c r="M72" s="1">
-        <v>85.4</v>
+        <v>88.8</v>
       </c>
       <c r="N72" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O72" s="1">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="P72" s="1">
-        <v>6.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q72" s="1">
         <v>978</v>
@@ -4219,10 +4193,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
@@ -4231,28 +4205,28 @@
         <v>3</v>
       </c>
       <c r="F73" s="2">
-        <v>163916300</v>
+        <v>158991170</v>
       </c>
       <c r="G73" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H73" s="2">
-        <v>3428699</v>
+        <v>2983484</v>
       </c>
       <c r="I73" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J73" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L73" s="1">
         <v>97.6</v>
       </c>
       <c r="M73" s="1">
-        <v>94.5</v>
+        <v>95.5</v>
       </c>
       <c r="N73" s="1">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O73" s="1">
         <v>0.2</v>
@@ -4266,10 +4240,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1">
         <v>4</v>
@@ -4278,34 +4252,34 @@
         <v>3</v>
       </c>
       <c r="F74" s="2">
-        <v>164196801</v>
+        <v>159204509</v>
       </c>
       <c r="G74" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H74" s="2">
-        <v>3435746</v>
+        <v>2988527</v>
       </c>
       <c r="I74" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J74" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L74" s="1">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="M74" s="1">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="N74" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O74" s="1">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="P74" s="1">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="Q74" s="1">
         <v>978</v>
@@ -4313,10 +4287,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1">
         <v>4</v>
@@ -4325,34 +4299,34 @@
         <v>4</v>
       </c>
       <c r="F75" s="2">
-        <v>163852484</v>
+        <v>158951395</v>
       </c>
       <c r="G75" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H75" s="2">
-        <v>3428354</v>
+        <v>2983480</v>
       </c>
       <c r="I75" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J75" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L75" s="1">
-        <v>97.9</v>
+        <v>97.4</v>
       </c>
       <c r="M75" s="1">
-        <v>94.7</v>
+        <v>95.3</v>
       </c>
       <c r="N75" s="1">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O75" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P75" s="1">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q75" s="1">
         <v>978</v>
@@ -4360,10 +4334,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -4372,34 +4346,34 @@
         <v>0</v>
       </c>
       <c r="F76" s="2">
-        <v>159382384</v>
+        <v>137738422</v>
       </c>
       <c r="G76" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H76" s="2">
-        <v>2986395</v>
+        <v>7677148</v>
       </c>
       <c r="I76" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J76" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L76" s="1">
-        <v>84.1</v>
+        <v>91.3</v>
       </c>
       <c r="M76" s="1">
-        <v>82.8</v>
+        <v>90.2</v>
       </c>
       <c r="N76" s="1">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O76" s="1">
-        <v>8.8000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P76" s="1">
-        <v>7.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q76" s="1">
         <v>978</v>
@@ -4407,10 +4381,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4419,34 +4393,34 @@
         <v>1</v>
       </c>
       <c r="F77" s="2">
-        <v>159147619</v>
+        <v>138169896</v>
       </c>
       <c r="G77" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H77" s="2">
-        <v>2983252</v>
+        <v>7713957</v>
       </c>
       <c r="I77" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J77" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L77" s="1">
-        <v>97.1</v>
+        <v>98.6</v>
       </c>
       <c r="M77" s="1">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="N77" s="1">
         <v>1.6</v>
       </c>
       <c r="O77" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P77" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q77" s="1">
         <v>978</v>
@@ -4454,10 +4428,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
@@ -4466,34 +4440,34 @@
         <v>1</v>
       </c>
       <c r="F78" s="2">
-        <v>159331083</v>
+        <v>137902989</v>
       </c>
       <c r="G78" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H78" s="2">
-        <v>2988324</v>
+        <v>7690421</v>
       </c>
       <c r="I78" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J78" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L78" s="1">
-        <v>89.9</v>
+        <v>94.6</v>
       </c>
       <c r="M78" s="1">
-        <v>88.9</v>
+        <v>93.5</v>
       </c>
       <c r="N78" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O78" s="1">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="P78" s="1">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q78" s="1">
         <v>978</v>
@@ -4501,10 +4475,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -4513,34 +4487,34 @@
         <v>2</v>
       </c>
       <c r="F79" s="2">
-        <v>159045776</v>
+        <v>138157234</v>
       </c>
       <c r="G79" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H79" s="2">
-        <v>2983366</v>
+        <v>7712778</v>
       </c>
       <c r="I79" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J79" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L79" s="1">
-        <v>97.8</v>
+        <v>98.5</v>
       </c>
       <c r="M79" s="1">
-        <v>95.9</v>
+        <v>96.7</v>
       </c>
       <c r="N79" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O79" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P79" s="1">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q79" s="1">
         <v>978</v>
@@ -4548,10 +4522,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -4560,34 +4534,34 @@
         <v>2</v>
       </c>
       <c r="F80" s="2">
-        <v>159249675</v>
+        <v>137891737</v>
       </c>
       <c r="G80" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H80" s="2">
-        <v>2988495</v>
+        <v>7690816</v>
       </c>
       <c r="I80" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J80" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L80" s="1">
-        <v>90.3</v>
+        <v>94.6</v>
       </c>
       <c r="M80" s="1">
-        <v>88.8</v>
+        <v>93.4</v>
       </c>
       <c r="N80" s="1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O80" s="1">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="P80" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q80" s="1">
         <v>978</v>
@@ -4595,10 +4569,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
         <v>3</v>
@@ -4607,34 +4581,34 @@
         <v>3</v>
       </c>
       <c r="F81" s="2">
-        <v>158991170</v>
+        <v>138112540</v>
       </c>
       <c r="G81" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H81" s="2">
-        <v>2983484</v>
+        <v>7713352</v>
       </c>
       <c r="I81" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J81" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L81" s="1">
-        <v>97.6</v>
+        <v>98.5</v>
       </c>
       <c r="M81" s="1">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="N81" s="1">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O81" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P81" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q81" s="1">
         <v>978</v>
@@ -4642,10 +4616,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C82" s="1">
         <v>4</v>
@@ -4654,34 +4628,34 @@
         <v>3</v>
       </c>
       <c r="F82" s="2">
-        <v>159204509</v>
+        <v>137841053</v>
       </c>
       <c r="G82" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H82" s="2">
-        <v>2988527</v>
+        <v>7690750</v>
       </c>
       <c r="I82" s="2">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="J82" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L82" s="1">
-        <v>89.8</v>
+        <v>94.3</v>
       </c>
       <c r="M82" s="1">
-        <v>88.2</v>
+        <v>93.5</v>
       </c>
       <c r="N82" s="1">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="O82" s="1">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="P82" s="1">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q82" s="1">
         <v>978</v>
@@ -4689,10 +4663,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C83" s="1">
         <v>4</v>
@@ -4701,34 +4675,34 @@
         <v>4</v>
       </c>
       <c r="F83" s="2">
-        <v>158951395</v>
+        <v>138081992</v>
       </c>
       <c r="G83" s="2">
-        <v>361</v>
+        <v>109</v>
       </c>
       <c r="H83" s="2">
-        <v>2983480</v>
+        <v>7713017</v>
       </c>
       <c r="I83" s="2">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="J83" s="2">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L83" s="1">
-        <v>97.4</v>
+        <v>98.7</v>
       </c>
       <c r="M83" s="1">
-        <v>95.3</v>
+        <v>96.8</v>
       </c>
       <c r="N83" s="1">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O83" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P83" s="1">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q83" s="1">
         <v>978</v>
@@ -4736,10 +4710,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -4748,34 +4722,34 @@
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>137738422</v>
+        <v>133602479</v>
       </c>
       <c r="G84" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H84" s="2">
-        <v>7677148</v>
+        <v>7750648</v>
       </c>
       <c r="I84" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J84" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L84" s="1">
         <v>91.3</v>
       </c>
       <c r="M84" s="1">
-        <v>90.2</v>
+        <v>90</v>
       </c>
       <c r="N84" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="O84" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="P84" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" s="1">
         <v>978</v>
@@ -4783,10 +4757,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -4795,34 +4769,34 @@
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>138169896</v>
+        <v>133762367</v>
       </c>
       <c r="G85" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H85" s="2">
-        <v>7713957</v>
+        <v>7765996</v>
       </c>
       <c r="I85" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J85" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L85" s="1">
-        <v>98.6</v>
+        <v>98.4</v>
       </c>
       <c r="M85" s="1">
-        <v>97</v>
+        <v>96.4</v>
       </c>
       <c r="N85" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O85" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P85" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Q85" s="1">
         <v>978</v>
@@ -4830,10 +4804,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -4842,34 +4816,34 @@
         <v>1</v>
       </c>
       <c r="F86" s="2">
-        <v>137902989</v>
+        <v>133659181</v>
       </c>
       <c r="G86" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H86" s="2">
-        <v>7690421</v>
+        <v>7756047</v>
       </c>
       <c r="I86" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J86" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L86" s="1">
-        <v>94.6</v>
+        <v>95.4</v>
       </c>
       <c r="M86" s="1">
-        <v>93.5</v>
+        <v>94.2</v>
       </c>
       <c r="N86" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O86" s="1">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="P86" s="1">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q86" s="1">
         <v>978</v>
@@ -4877,10 +4851,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
         <v>2</v>
@@ -4889,34 +4863,34 @@
         <v>2</v>
       </c>
       <c r="F87" s="2">
-        <v>138157234</v>
+        <v>133737508</v>
       </c>
       <c r="G87" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H87" s="2">
-        <v>7712778</v>
+        <v>7765331</v>
       </c>
       <c r="I87" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J87" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L87" s="1">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="M87" s="1">
-        <v>96.7</v>
+        <v>96.4</v>
       </c>
       <c r="N87" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O87" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P87" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Q87" s="1">
         <v>978</v>
@@ -4924,10 +4898,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
         <v>3</v>
@@ -4936,34 +4910,34 @@
         <v>2</v>
       </c>
       <c r="F88" s="2">
-        <v>137891737</v>
+        <v>133634189</v>
       </c>
       <c r="G88" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H88" s="2">
-        <v>7690816</v>
+        <v>7755919</v>
       </c>
       <c r="I88" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J88" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L88" s="1">
-        <v>94.6</v>
+        <v>95.3</v>
       </c>
       <c r="M88" s="1">
-        <v>93.4</v>
+        <v>94.2</v>
       </c>
       <c r="N88" s="1">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O88" s="1">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="Q88" s="1">
         <v>978</v>
@@ -4971,10 +4945,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
@@ -4983,34 +4957,34 @@
         <v>3</v>
       </c>
       <c r="F89" s="2">
-        <v>138112540</v>
+        <v>133716193</v>
       </c>
       <c r="G89" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H89" s="2">
-        <v>7713352</v>
+        <v>7764289</v>
       </c>
       <c r="I89" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J89" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L89" s="1">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="M89" s="1">
-        <v>96.7</v>
+        <v>96.4</v>
       </c>
       <c r="N89" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O89" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P89" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Q89" s="1">
         <v>978</v>
@@ -5018,10 +4992,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1">
         <v>4</v>
@@ -5030,34 +5004,34 @@
         <v>3</v>
       </c>
       <c r="F90" s="2">
-        <v>137841053</v>
+        <v>133604541</v>
       </c>
       <c r="G90" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H90" s="2">
-        <v>7690750</v>
+        <v>7755035</v>
       </c>
       <c r="I90" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J90" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L90" s="1">
-        <v>94.3</v>
+        <v>95.8</v>
       </c>
       <c r="M90" s="1">
-        <v>93.5</v>
+        <v>94.6</v>
       </c>
       <c r="N90" s="1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="O90" s="1">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="P90" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q90" s="1">
         <v>978</v>
@@ -5065,10 +5039,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C91" s="1">
         <v>4</v>
@@ -5077,34 +5051,34 @@
         <v>4</v>
       </c>
       <c r="F91" s="2">
-        <v>138081992</v>
+        <v>133681913</v>
       </c>
       <c r="G91" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="H91" s="2">
-        <v>7713017</v>
+        <v>7901469</v>
       </c>
       <c r="I91" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J91" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L91" s="1">
-        <v>98.7</v>
+        <v>98.4</v>
       </c>
       <c r="M91" s="1">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="N91" s="1">
         <v>1.9</v>
       </c>
       <c r="O91" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P91" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="Q91" s="1">
         <v>978</v>
@@ -5112,10 +5086,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -5124,34 +5098,34 @@
         <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>133602479</v>
+        <v>169341059</v>
       </c>
       <c r="G92" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H92" s="2">
-        <v>7750648</v>
+        <v>4156756</v>
       </c>
       <c r="I92" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J92" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L92" s="1">
-        <v>91.3</v>
+        <v>84.9</v>
       </c>
       <c r="M92" s="1">
-        <v>90</v>
+        <v>84.2</v>
       </c>
       <c r="N92" s="1">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="O92" s="1">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="P92" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q92" s="1">
         <v>978</v>
@@ -5159,10 +5133,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -5171,34 +5145,34 @@
         <v>1</v>
       </c>
       <c r="F93" s="2">
-        <v>133762367</v>
+        <v>169773231</v>
       </c>
       <c r="G93" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H93" s="2">
-        <v>7765996</v>
+        <v>4170953</v>
       </c>
       <c r="I93" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J93" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L93" s="1">
-        <v>98.4</v>
+        <v>97.1</v>
       </c>
       <c r="M93" s="1">
-        <v>96.4</v>
+        <v>95.1</v>
       </c>
       <c r="N93" s="1">
         <v>2</v>
       </c>
       <c r="O93" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P93" s="1">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q93" s="1">
         <v>978</v>
@@ -5206,10 +5180,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
@@ -5218,34 +5192,34 @@
         <v>1</v>
       </c>
       <c r="F94" s="2">
-        <v>133659181</v>
+        <v>169546713</v>
       </c>
       <c r="G94" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H94" s="2">
-        <v>7756047</v>
+        <v>4163842</v>
       </c>
       <c r="I94" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J94" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L94" s="1">
-        <v>95.4</v>
+        <v>90.6</v>
       </c>
       <c r="M94" s="1">
-        <v>94.2</v>
+        <v>89.6</v>
       </c>
       <c r="N94" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O94" s="1">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="P94" s="1">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="Q94" s="1">
         <v>978</v>
@@ -5253,10 +5227,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -5265,34 +5239,34 @@
         <v>2</v>
       </c>
       <c r="F95" s="2">
-        <v>133737508</v>
+        <v>169758884</v>
       </c>
       <c r="G95" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H95" s="2">
-        <v>7765331</v>
+        <v>4171372</v>
       </c>
       <c r="I95" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J95" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L95" s="1">
-        <v>98.4</v>
+        <v>97.4</v>
       </c>
       <c r="M95" s="1">
-        <v>96.4</v>
+        <v>95.4</v>
       </c>
       <c r="N95" s="1">
         <v>2</v>
       </c>
       <c r="O95" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P95" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q95" s="1">
         <v>978</v>
@@ -5300,10 +5274,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C96" s="1">
         <v>3</v>
@@ -5312,34 +5286,34 @@
         <v>2</v>
       </c>
       <c r="F96" s="2">
-        <v>133634189</v>
+        <v>169516024</v>
       </c>
       <c r="G96" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H96" s="2">
-        <v>7755919</v>
+        <v>4163967</v>
       </c>
       <c r="I96" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J96" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L96" s="1">
-        <v>95.3</v>
+        <v>91.5</v>
       </c>
       <c r="M96" s="1">
-        <v>94.2</v>
+        <v>90.3</v>
       </c>
       <c r="N96" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O96" s="1">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="P96" s="1">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="Q96" s="1">
         <v>978</v>
@@ -5347,10 +5321,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
         <v>3</v>
@@ -5359,34 +5333,34 @@
         <v>3</v>
       </c>
       <c r="F97" s="2">
-        <v>133716193</v>
+        <v>169752477</v>
       </c>
       <c r="G97" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H97" s="2">
-        <v>7764289</v>
+        <v>4171555</v>
       </c>
       <c r="I97" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J97" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L97" s="1">
-        <v>98.4</v>
+        <v>97.4</v>
       </c>
       <c r="M97" s="1">
-        <v>96.4</v>
+        <v>95.5</v>
       </c>
       <c r="N97" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O97" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P97" s="1">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q97" s="1">
         <v>978</v>
@@ -5394,10 +5368,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1">
         <v>4</v>
@@ -5406,34 +5380,34 @@
         <v>3</v>
       </c>
       <c r="F98" s="2">
-        <v>133604541</v>
+        <v>169501632</v>
       </c>
       <c r="G98" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H98" s="2">
-        <v>7755035</v>
+        <v>4163710</v>
       </c>
       <c r="I98" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J98" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L98" s="1">
-        <v>95.8</v>
+        <v>92.2</v>
       </c>
       <c r="M98" s="1">
-        <v>94.6</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1">
         <v>1.2</v>
       </c>
       <c r="O98" s="1">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="P98" s="1">
-        <v>2.2000000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="Q98" s="1">
         <v>978</v>
@@ -5441,10 +5415,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1">
         <v>4</v>
@@ -5453,34 +5427,34 @@
         <v>4</v>
       </c>
       <c r="F99" s="2">
-        <v>133681913</v>
+        <v>169712859</v>
       </c>
       <c r="G99" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H99" s="2">
-        <v>7901469</v>
+        <v>4171375</v>
       </c>
       <c r="I99" s="2">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J99" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L99" s="1">
-        <v>98.4</v>
+        <v>97.1</v>
       </c>
       <c r="M99" s="1">
-        <v>96.5</v>
+        <v>95.1</v>
       </c>
       <c r="N99" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O99" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="P99" s="1">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q99" s="1">
         <v>978</v>
@@ -5488,10 +5462,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -5500,34 +5474,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="2">
-        <v>169341059</v>
+        <v>196059495</v>
       </c>
       <c r="G100" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H100" s="2">
-        <v>4156756</v>
+        <v>1524869</v>
       </c>
       <c r="I100" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J100" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L100" s="1">
-        <v>84.9</v>
+        <v>79.7</v>
       </c>
       <c r="M100" s="1">
-        <v>84.2</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="N100" s="1">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="O100" s="1">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="P100" s="1">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Q100" s="1">
         <v>978</v>
@@ -5535,10 +5509,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -5547,34 +5521,34 @@
         <v>1</v>
       </c>
       <c r="F101" s="2">
-        <v>169773231</v>
+        <v>195211430</v>
       </c>
       <c r="G101" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="H101" s="2">
-        <v>4170953</v>
+        <v>1519989</v>
       </c>
       <c r="I101" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="J101" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L101" s="1">
-        <v>97.1</v>
+        <v>96.4</v>
       </c>
       <c r="M101" s="1">
-        <v>95.1</v>
+        <v>93.8</v>
       </c>
       <c r="N101" s="1">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O101" s="1">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="P101" s="1">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Q101" s="1">
         <v>978</v>
@@ -5582,10 +5556,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -5594,34 +5568,34 @@
         <v>1</v>
       </c>
       <c r="F102" s="2">
-        <v>169546713</v>
+        <v>196064201</v>
       </c>
       <c r="G102" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H102" s="2">
-        <v>4163842</v>
+        <v>1525380</v>
       </c>
       <c r="I102" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J102" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L102" s="1">
-        <v>90.6</v>
+        <v>87.3</v>
       </c>
       <c r="M102" s="1">
-        <v>89.6</v>
+        <v>85.8</v>
       </c>
       <c r="N102" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O102" s="1">
-        <v>5.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P102" s="1">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q102" s="1">
         <v>978</v>
@@ -5629,10 +5603,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -5641,34 +5615,34 @@
         <v>2</v>
       </c>
       <c r="F103" s="2">
-        <v>169758884</v>
+        <v>195035062</v>
       </c>
       <c r="G103" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H103" s="2">
-        <v>4171372</v>
+        <v>1519817</v>
       </c>
       <c r="I103" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="J103" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L103" s="1">
         <v>97.4</v>
       </c>
       <c r="M103" s="1">
-        <v>95.4</v>
+        <v>94.5</v>
       </c>
       <c r="N103" s="1">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O103" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P103" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="Q103" s="1">
         <v>978</v>
@@ -5676,10 +5650,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -5688,34 +5662,34 @@
         <v>2</v>
       </c>
       <c r="F104" s="2">
-        <v>169516024</v>
+        <v>195911990</v>
       </c>
       <c r="G104" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H104" s="2">
-        <v>4163967</v>
+        <v>1525396</v>
       </c>
       <c r="I104" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J104" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L104" s="1">
-        <v>91.5</v>
+        <v>86.8</v>
       </c>
       <c r="M104" s="1">
-        <v>90.3</v>
+        <v>85.5</v>
       </c>
       <c r="N104" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O104" s="1">
-        <v>4.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P104" s="1">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q104" s="1">
         <v>978</v>
@@ -5723,10 +5697,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
@@ -5735,34 +5709,34 @@
         <v>3</v>
       </c>
       <c r="F105" s="2">
-        <v>169752477</v>
+        <v>194995735</v>
       </c>
       <c r="G105" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H105" s="2">
-        <v>4171555</v>
+        <v>1518674</v>
       </c>
       <c r="I105" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="J105" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L105" s="1">
         <v>97.4</v>
       </c>
       <c r="M105" s="1">
-        <v>95.5</v>
+        <v>94.6</v>
       </c>
       <c r="N105" s="1">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="O105" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P105" s="1">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q105" s="1">
         <v>978</v>
@@ -5770,10 +5744,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
@@ -5782,34 +5756,34 @@
         <v>3</v>
       </c>
       <c r="F106" s="2">
-        <v>169501632</v>
+        <v>195865612</v>
       </c>
       <c r="G106" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H106" s="2">
-        <v>4163710</v>
+        <v>1524314</v>
       </c>
       <c r="I106" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="J106" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L106" s="1">
-        <v>92.2</v>
+        <v>86.7</v>
       </c>
       <c r="M106" s="1">
-        <v>91</v>
+        <v>85.5</v>
       </c>
       <c r="N106" s="1">
         <v>1.2</v>
       </c>
       <c r="O106" s="1">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="P106" s="1">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="Q106" s="1">
         <v>978</v>
@@ -5817,10 +5791,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C107" s="1">
         <v>4</v>
@@ -5829,34 +5803,34 @@
         <v>4</v>
       </c>
       <c r="F107" s="2">
-        <v>169712859</v>
+        <v>194906010</v>
       </c>
       <c r="G107" s="2">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="H107" s="2">
-        <v>4171375</v>
+        <v>1520196</v>
       </c>
       <c r="I107" s="2">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="J107" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L107" s="1">
-        <v>97.1</v>
+        <v>97.9</v>
       </c>
       <c r="M107" s="1">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="N107" s="1">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O107" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P107" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="Q107" s="1">
         <v>978</v>
@@ -5864,10 +5838,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -5876,34 +5850,34 @@
         <v>0</v>
       </c>
       <c r="F108" s="2">
-        <v>196059495</v>
+        <v>143021842</v>
       </c>
       <c r="G108" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H108" s="2">
-        <v>1524869</v>
+        <v>5218344</v>
       </c>
       <c r="I108" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J108" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L108" s="1">
-        <v>79.7</v>
+        <v>86.7</v>
       </c>
       <c r="M108" s="1">
-        <v>78.400000000000006</v>
+        <v>86.2</v>
       </c>
       <c r="N108" s="1">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="O108" s="1">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="P108" s="1">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="Q108" s="1">
         <v>978</v>
@@ -5911,10 +5885,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -5923,34 +5897,34 @@
         <v>1</v>
       </c>
       <c r="F109" s="2">
-        <v>195211430</v>
+        <v>143313311</v>
       </c>
       <c r="G109" s="2">
-        <v>490</v>
+        <v>111</v>
       </c>
       <c r="H109" s="2">
-        <v>1519989</v>
+        <v>5228746</v>
       </c>
       <c r="I109" s="2">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="J109" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L109" s="1">
-        <v>96.4</v>
+        <v>98.2</v>
       </c>
       <c r="M109" s="1">
-        <v>93.8</v>
+        <v>96.8</v>
       </c>
       <c r="N109" s="1">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O109" s="1">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="P109" s="1">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q109" s="1">
         <v>978</v>
@@ -5958,10 +5932,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
         <v>2</v>
@@ -5970,34 +5944,34 @@
         <v>1</v>
       </c>
       <c r="F110" s="2">
-        <v>196064201</v>
+        <v>143165987</v>
       </c>
       <c r="G110" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H110" s="2">
-        <v>1525380</v>
+        <v>5223480</v>
       </c>
       <c r="I110" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J110" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L110" s="1">
-        <v>87.3</v>
+        <v>92.9</v>
       </c>
       <c r="M110" s="1">
-        <v>85.8</v>
+        <v>92.2</v>
       </c>
       <c r="N110" s="1">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="O110" s="1">
-        <v>8.1999999999999993</v>
+        <v>4.3</v>
       </c>
       <c r="P110" s="1">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q110" s="1">
         <v>978</v>
@@ -6005,10 +5979,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C111" s="1">
         <v>2</v>
@@ -6017,34 +5991,34 @@
         <v>2</v>
       </c>
       <c r="F111" s="2">
-        <v>195035062</v>
+        <v>143298880</v>
       </c>
       <c r="G111" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H111" s="2">
-        <v>1519817</v>
+        <v>5227729</v>
       </c>
       <c r="I111" s="2">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="J111" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L111" s="1">
-        <v>97.4</v>
+        <v>98.3</v>
       </c>
       <c r="M111" s="1">
-        <v>94.5</v>
+        <v>96.7</v>
       </c>
       <c r="N111" s="1">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O111" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="P111" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q111" s="1">
         <v>978</v>
@@ -6052,10 +6026,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1">
         <v>3</v>
@@ -6064,34 +6038,34 @@
         <v>2</v>
       </c>
       <c r="F112" s="2">
-        <v>195911990</v>
+        <v>143156621</v>
       </c>
       <c r="G112" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H112" s="2">
-        <v>1525396</v>
+        <v>5222799</v>
       </c>
       <c r="I112" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J112" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L112" s="1">
-        <v>86.8</v>
+        <v>92.9</v>
       </c>
       <c r="M112" s="1">
-        <v>85.5</v>
+        <v>92</v>
       </c>
       <c r="N112" s="1">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="O112" s="1">
-        <v>8.3000000000000007</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P112" s="1">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="Q112" s="1">
         <v>978</v>
@@ -6099,10 +6073,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
@@ -6111,34 +6085,34 @@
         <v>3</v>
       </c>
       <c r="F113" s="2">
-        <v>194995735</v>
+        <v>143281828</v>
       </c>
       <c r="G113" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H113" s="2">
-        <v>1518674</v>
+        <v>5227189</v>
       </c>
       <c r="I113" s="2">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="J113" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L113" s="1">
-        <v>97.4</v>
+        <v>98.3</v>
       </c>
       <c r="M113" s="1">
-        <v>94.6</v>
+        <v>96.9</v>
       </c>
       <c r="N113" s="1">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O113" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="P113" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q113" s="1">
         <v>978</v>
@@ -6146,10 +6120,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C114" s="1">
         <v>4</v>
@@ -6158,34 +6132,34 @@
         <v>3</v>
       </c>
       <c r="F114" s="2">
-        <v>195865612</v>
+        <v>143131190</v>
       </c>
       <c r="G114" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H114" s="2">
-        <v>1524314</v>
+        <v>5222974</v>
       </c>
       <c r="I114" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="J114" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L114" s="1">
-        <v>86.7</v>
+        <v>92.6</v>
       </c>
       <c r="M114" s="1">
-        <v>85.5</v>
+        <v>91.7</v>
       </c>
       <c r="N114" s="1">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="O114" s="1">
-        <v>8.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P114" s="1">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="Q114" s="1">
         <v>978</v>
@@ -6193,10 +6167,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <v>4</v>
@@ -6205,417 +6179,41 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <v>194906010</v>
+        <v>143269464</v>
       </c>
       <c r="G115" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="H115" s="2">
-        <v>1520196</v>
+        <v>5228061</v>
       </c>
       <c r="I115" s="2">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="J115" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L115" s="1">
-        <v>97.9</v>
+        <v>98.2</v>
       </c>
       <c r="M115" s="1">
-        <v>95.2</v>
+        <v>96.6</v>
       </c>
       <c r="N115" s="1">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O115" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P115" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q115" s="1">
         <v>978</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>143021842</v>
-      </c>
-      <c r="G116" s="2">
-        <v>111</v>
-      </c>
-      <c r="H116" s="2">
-        <v>5218344</v>
-      </c>
-      <c r="I116" s="2">
-        <v>68</v>
-      </c>
-      <c r="J116" s="2">
-        <v>34</v>
-      </c>
-      <c r="L116" s="1">
-        <v>86.7</v>
-      </c>
-      <c r="M116" s="1">
-        <v>86.2</v>
-      </c>
-      <c r="N116" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O116" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="P116" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="D117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="2">
-        <v>143313311</v>
-      </c>
-      <c r="G117" s="2">
-        <v>111</v>
-      </c>
-      <c r="H117" s="2">
-        <v>5228746</v>
-      </c>
-      <c r="I117" s="2">
-        <v>68</v>
-      </c>
-      <c r="J117" s="2">
-        <v>34</v>
-      </c>
-      <c r="L117" s="1">
-        <v>98.2</v>
-      </c>
-      <c r="M117" s="1">
-        <v>96.8</v>
-      </c>
-      <c r="N117" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O117" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P117" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="1">
-        <v>2</v>
-      </c>
-      <c r="D118" s="1">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2">
-        <v>143165987</v>
-      </c>
-      <c r="G118" s="2">
-        <v>111</v>
-      </c>
-      <c r="H118" s="2">
-        <v>5223480</v>
-      </c>
-      <c r="I118" s="2">
-        <v>68</v>
-      </c>
-      <c r="J118" s="2">
-        <v>34</v>
-      </c>
-      <c r="L118" s="1">
-        <v>92.9</v>
-      </c>
-      <c r="M118" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="N118" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O118" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="P118" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="F119" s="2">
-        <v>143298880</v>
-      </c>
-      <c r="G119" s="2">
-        <v>111</v>
-      </c>
-      <c r="H119" s="2">
-        <v>5227729</v>
-      </c>
-      <c r="I119" s="2">
-        <v>68</v>
-      </c>
-      <c r="J119" s="2">
-        <v>34</v>
-      </c>
-      <c r="L119" s="1">
-        <v>98.3</v>
-      </c>
-      <c r="M119" s="1">
-        <v>96.7</v>
-      </c>
-      <c r="N119" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O119" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P119" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q119" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="1">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1">
-        <v>2</v>
-      </c>
-      <c r="F120" s="2">
-        <v>143156621</v>
-      </c>
-      <c r="G120" s="2">
-        <v>111</v>
-      </c>
-      <c r="H120" s="2">
-        <v>5222799</v>
-      </c>
-      <c r="I120" s="2">
-        <v>68</v>
-      </c>
-      <c r="J120" s="2">
-        <v>34</v>
-      </c>
-      <c r="L120" s="1">
-        <v>92.9</v>
-      </c>
-      <c r="M120" s="1">
-        <v>92</v>
-      </c>
-      <c r="N120" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O120" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P120" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1">
-        <v>3</v>
-      </c>
-      <c r="F121" s="2">
-        <v>143281828</v>
-      </c>
-      <c r="G121" s="2">
-        <v>111</v>
-      </c>
-      <c r="H121" s="2">
-        <v>5227189</v>
-      </c>
-      <c r="I121" s="2">
-        <v>68</v>
-      </c>
-      <c r="J121" s="2">
-        <v>34</v>
-      </c>
-      <c r="L121" s="1">
-        <v>98.3</v>
-      </c>
-      <c r="M121" s="1">
-        <v>96.9</v>
-      </c>
-      <c r="N121" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="O121" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P121" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q121" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="1">
-        <v>4</v>
-      </c>
-      <c r="D122" s="1">
-        <v>3</v>
-      </c>
-      <c r="F122" s="2">
-        <v>143131190</v>
-      </c>
-      <c r="G122" s="2">
-        <v>111</v>
-      </c>
-      <c r="H122" s="2">
-        <v>5222974</v>
-      </c>
-      <c r="I122" s="2">
-        <v>68</v>
-      </c>
-      <c r="J122" s="2">
-        <v>34</v>
-      </c>
-      <c r="L122" s="1">
-        <v>92.6</v>
-      </c>
-      <c r="M122" s="1">
-        <v>91.7</v>
-      </c>
-      <c r="N122" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O122" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P122" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q122" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>1</v>
-      </c>
-      <c r="B123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="1">
-        <v>4</v>
-      </c>
-      <c r="D123" s="1">
-        <v>4</v>
-      </c>
-      <c r="F123" s="2">
-        <v>143269464</v>
-      </c>
-      <c r="G123" s="2">
-        <v>111</v>
-      </c>
-      <c r="H123" s="2">
-        <v>5228061</v>
-      </c>
-      <c r="I123" s="2">
-        <v>68</v>
-      </c>
-      <c r="J123" s="2">
-        <v>34</v>
-      </c>
-      <c r="L123" s="1">
-        <v>98.2</v>
-      </c>
-      <c r="M123" s="1">
-        <v>96.6</v>
-      </c>
-      <c r="N123" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O123" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P123" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q123" s="1">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F178" s="1"/>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F170" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
